--- a/lab1/itunes.xlsx
+++ b/lab1/itunes.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI GF\Documents\Techkids\Labs\lab1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1AD4536-90D2-4C2C-8AE1-BAAE49156E2B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="pyexcel_sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="pyexcel_sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="178">
   <si>
     <t>artist</t>
   </si>
@@ -554,20 +559,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -583,15 +587,35 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -879,19 +903,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="24" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="49.6640625" customWidth="1"/>
+    <col min="2" max="2" width="39.109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -899,7 +924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -907,7 +932,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -915,7 +940,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -923,7 +948,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -931,7 +956,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -939,7 +964,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -947,7 +972,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -955,7 +980,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -963,7 +988,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -971,7 +996,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -979,7 +1004,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -987,7 +1012,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -995,7 +1020,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -1003,7 +1028,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -1011,7 +1036,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -1019,7 +1044,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -1027,7 +1052,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -1035,7 +1060,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>34</v>
       </c>
@@ -1043,7 +1068,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>36</v>
       </c>
@@ -1051,7 +1076,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -1059,7 +1084,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>40</v>
       </c>
@@ -1067,7 +1092,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>42</v>
       </c>
@@ -1075,7 +1100,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>44</v>
       </c>
@@ -1083,7 +1108,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>46</v>
       </c>
@@ -1091,7 +1116,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>48</v>
       </c>
@@ -1099,7 +1124,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>50</v>
       </c>
@@ -1107,7 +1132,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>52</v>
       </c>
@@ -1115,7 +1140,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>54</v>
       </c>
@@ -1123,7 +1148,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>56</v>
       </c>
@@ -1131,7 +1156,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>17</v>
       </c>
@@ -1139,7 +1164,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>59</v>
       </c>
@@ -1147,7 +1172,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>17</v>
       </c>
@@ -1155,7 +1180,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>62</v>
       </c>
@@ -1163,7 +1188,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>64</v>
       </c>
@@ -1171,7 +1196,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>66</v>
       </c>
@@ -1179,7 +1204,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>68</v>
       </c>
@@ -1187,7 +1212,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>2</v>
       </c>
@@ -1195,7 +1220,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>71</v>
       </c>
@@ -1203,7 +1228,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>73</v>
       </c>
@@ -1211,7 +1236,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>75</v>
       </c>
@@ -1219,7 +1244,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>77</v>
       </c>
@@ -1227,7 +1252,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>79</v>
       </c>
@@ -1235,7 +1260,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>81</v>
       </c>
@@ -1243,7 +1268,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>83</v>
       </c>
@@ -1251,7 +1276,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>85</v>
       </c>
@@ -1259,7 +1284,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>87</v>
       </c>
@@ -1267,7 +1292,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>25</v>
       </c>
@@ -1275,7 +1300,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>90</v>
       </c>
@@ -1283,7 +1308,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>91</v>
       </c>
@@ -1291,7 +1316,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>93</v>
       </c>
@@ -1299,7 +1324,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>95</v>
       </c>
@@ -1307,7 +1332,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>79</v>
       </c>
@@ -1315,7 +1340,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>98</v>
       </c>
@@ -1323,7 +1348,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>100</v>
       </c>
@@ -1331,7 +1356,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>102</v>
       </c>
@@ -1339,7 +1364,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>104</v>
       </c>
@@ -1347,7 +1372,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>106</v>
       </c>
@@ -1355,7 +1380,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>108</v>
       </c>
@@ -1363,7 +1388,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>110</v>
       </c>
@@ -1371,7 +1396,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>112</v>
       </c>
@@ -1379,7 +1404,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>114</v>
       </c>
@@ -1387,7 +1412,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>52</v>
       </c>
@@ -1395,7 +1420,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>54</v>
       </c>
@@ -1403,7 +1428,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>117</v>
       </c>
@@ -1411,7 +1436,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>119</v>
       </c>
@@ -1419,7 +1444,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>121</v>
       </c>
@@ -1427,7 +1452,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>123</v>
       </c>
@@ -1435,7 +1460,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>21</v>
       </c>
@@ -1443,7 +1468,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>126</v>
       </c>
@@ -1451,7 +1476,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>17</v>
       </c>
@@ -1459,7 +1484,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>77</v>
       </c>
@@ -1467,7 +1492,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>130</v>
       </c>
@@ -1475,7 +1500,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>56</v>
       </c>
@@ -1483,7 +1508,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>133</v>
       </c>
@@ -1491,7 +1516,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>54</v>
       </c>
@@ -1499,7 +1524,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>136</v>
       </c>
@@ -1507,7 +1532,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>138</v>
       </c>
@@ -1515,7 +1540,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>140</v>
       </c>
@@ -1523,7 +1548,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>142</v>
       </c>
@@ -1531,7 +1556,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>83</v>
       </c>
@@ -1539,7 +1564,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>145</v>
       </c>
@@ -1547,7 +1572,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>147</v>
       </c>
@@ -1555,7 +1580,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>149</v>
       </c>
@@ -1563,7 +1588,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>31</v>
       </c>
@@ -1571,7 +1596,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>54</v>
       </c>
@@ -1579,7 +1604,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>153</v>
       </c>
@@ -1587,7 +1612,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>91</v>
       </c>
@@ -1595,7 +1620,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>156</v>
       </c>
@@ -1603,7 +1628,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>14</v>
       </c>
@@ -1611,7 +1636,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>159</v>
       </c>
@@ -1619,7 +1644,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>161</v>
       </c>
@@ -1627,7 +1652,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>62</v>
       </c>
@@ -1635,7 +1660,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>164</v>
       </c>
@@ -1643,7 +1668,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>10</v>
       </c>
@@ -1651,7 +1676,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>167</v>
       </c>
@@ -1659,7 +1684,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>169</v>
       </c>
@@ -1667,7 +1692,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>91</v>
       </c>
@@ -1675,7 +1700,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>172</v>
       </c>
@@ -1683,7 +1708,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>174</v>
       </c>
@@ -1691,7 +1716,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>176</v>
       </c>
@@ -1700,5 +1725,9 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A1:B1">
+    <cfRule type="uniqueValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>